--- a/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400047</t>
   </si>
   <si>
-    <t>Robert A. Brady</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you.    Thank you, Madam Chair.    The Chairman. I would also like to take a moment to introduce and to welcome, before we start our hearing here, our newest member to the House Administration Committee, that is Mark Walker who represents the Sixth District in North Carolina. He is in his first term here in Congress. He came very highly recommended to us, that he had an interest in this Committee, and we are delighted that he is here.    His background is, I think, going to be very much an asset to our Committee. He previously served his community as a pastor, actually, in Greensboro, North Carolina, worked in a small business in the private sector. Both of those attributes are going to be very much needed here, so we certainly appreciate that. We are looking forward to putting him to work here and also looking forward to his input on our Committee.    We are meeting here today to discuss the United States Capitol Police. This law enforcement agency is unique really, unique maybe in the world, certainly, probably not what most would consider a typical community police force, and that is because the mission of the Capitol Police is to protect and to serve the United States Capitol, which, of course, is the citadel of democracy of the world.    There is no denying the fact that this building and this institution are very dramatic symbols of our free society, which is based on self-government. This also makes the Capitol campus and this institution a target of those who hate our freedoms and hate our values here in America. In fact, some say that because of this, perhaps we need even greater restrictions on access to the Capitol campus here. Obviously, that would be totally counter to what this Nation stands for.    One of the many important rights secured on behalf of the American people and the First Amendment in our Constitution is the right to redress their grievances before their government. The American people must have access to those that they send to the Capitol to represent their interests, and they must also have access to the grounds of our Capitol Building to also exercise their constitutionally guaranteed right to peaceably assemble.    Since Congress created the U.S. Capitol Police back in 1828, they have worked very hard to fulfill this dual mission of safety and accessibility. Every Member of Congress, the staff of the Capitol here in the office buildings, and the American people as a whole understand that this is no small task that we have missioned them with.    We commend and we have the utmost respect for the many men and women who uphold their sworn duty to act as protectors and defenders of the law day in and day out, 24/7. Each officer has come here willingly answering the call to serve and to protect. The Capitol Police law enforcement agency is just not a few individuals; they are many who serve as one to meet their mission in protecting our complex.    So we hold this hearing today as part of our Committee's jurisdiction to review the safety and the security of the Capitol and its facilities. The safety of each Member of Congress, all the staff, and most importantly of course, the security and the safety of the millions of Americans who visit each and every year is important.    Our Committee works very closely with the Capitol Police on a daily basis to ensure that they have the tools, the authority, and the support that they need to keep our Capitol safe and secure for everyone. The security needs of the Capitol complex are always at the forefront of our minds, because we all understand the threats. There is a constant need to review security protocols; make certain those protocols are thoughtfully developed; and ensure that the protocols are reviewed, tested, and deployed against the threats.    The importance of this process has not diminished over the years. In fact, new and verifiable threats have only increased, and we must work together to adapt. As with any law enforcement organization, the responsibility for meeting the mission begins and ends at the top. In this case, with the Chief of Police, Kim Dine. While our Committee meets on a regular basis to discuss the security status of our Capitol and all of its inhabitants with the Capitol Police leadership, we felt it was very timely to have a general oversight hearing to hear directly from the Chief of the Capitol Police about his force.    Obviously, we all recognize, Chief, that there are very sensitive aspects about the operations and the capabilities of the Capitol Police that we can probably not discuss in an open forum, but it is important to note, I think, as well, that most often threats are discovered and they are investigated and they are resolved without them ever becoming public. And often they do that almost always really in cooperation with other agencies.    Due to the inherent professionalism of the force, that is a type of flawless response that we have come to expect from the U.S. Capitol Police. But, certainly, as some of the recent events--the gyrocopter incident brings these threats to the forefront. Many have questioned how the gyrocopter was actually able to fly all the way to the front lawn of the Capitol.    However, I will note this: Actually protecting the restricted airspace over Washington, D.C., is not the mission of the Capitol Police. That falls to other agencies. In fact, I can remember, I think it was during President Reagan's funeral when a former Governor of Kentucky, his State aircraft came into restricted airspace. A pilot error, but the Air Force actually scrambled their jets, I think, on that day.    I do remember the Capitol Police doing their duty to evacuate the Capitol campus flawlessly. Again, in that instance, the job of the Capitol Police was not to so much eliminate the air threat in the restricted airspace but to protect those who work there or are visiting the Capitol campus.    I would say this, I had a briefing after that, many of us did, and I told the Chief then that I thought the Capitol Police performed very well once the gyrocopter landed, almost flawlessly, really. However, I would also say that there were some aspects of the event, which I am going to be looking forward to hearing from the Chief on, which we would like to talk a bit about, about when did the Capitol Police know that the individual was heading for the Capitol; and if we had some heads up, how would that affect the response then; and how does it affect the response going forward.    I would also like to note that in that incident and others, I have taken issue with the lack of communication. During that incident, actually the best source of information that I had and I think many Members had was watching cable TV, and actually looking at some of the different news channels. So I think the police work was very impressive, but the communications could be improved. That is an area that we want to have a bit of oversight on. Although, again, I have raised these concerns with the Chief, and it does appear to be that the communication protocols have already been improved.    Also, there have been three separate incidents that perhaps normally you wouldn't talk about publicly, but they have been in all of media outlets so it is quite known, where officers have left their assigned firearms unattended. These are very serious breaches, I think, that alarm all of us, quite frankly. When you are in an open and public environment with literally millions of visitors each and every year, securing your weapon is of primary importance.    So I understand, again, that these incidents are being investigated and, again, normally wouldn't be talked about openly. But certainly, at this point, I hope to hear a bit about how they are being handled, whether the Capitol Police has the training and the resources that it needs, and what steps are being taken to ensure that these kinds of serious incidents are not repeated.    The purpose of the hearing is to examine the current operations and the responses taken by the Capitol Police, particularly those leadership decisions which have an effect on training, readiness, and on the overall morale of the force of the United States Capitol Police.    I would say this, we certainly all understand that now is a particularly challenging time for law enforcement across the entire country--certainly not just here, but across the entire country. We are also very aware that the Capitol Police operate in sort of an asymmetrical environment. The purpose of this hearing is certainly not to second-guess every single action that has been taken in pursuit of security. However, our Committee does have the oversight responsibility for conducting a hearing such as this, and we intend to carry out our responsibilities.    Of course, nearly all of the events that have occurred in the public view are met with textbook responses that display, again, the standard of conduct, the professionalism that Congress expects of its law enforcement agency and is demanded by the American people as well. We would ask the Chief to provide us as much information as possible in an open setting about these incidents, such as what was learned; training improvements; where the training proves successful; in the cases of the unintended firearms, what kinds of corrective actions has been taken, again, that you could discuss openly; and, lastly but likely most importantly, what your plan is for the department to move forward. I think we don't want to be spending our time looking in the rearview mirror. We want to look forward as much as possible, always.    One of the questions--and I mentioned this to the Chief before we started--that I am going to want to bring up and perhaps more of a discussion amongst even the members here is exploring how the chain of command is structured, because right now the Chief of Police reports to the Capitol Police Board, which is made up of the Sergeant at Arms in the House, the Sergeant at Arms in the Senate, and the Architect of the Capitol. This was a police board that was comprised back in the 1800s, and it just seems like it would be a timely thing for us, perhaps, to discuss whether or not this reporting structure complicates performing the duties that we have an expectation of the Capitol Police and its Chief and if it is the best management structure.    Then, finally, I would ask the Chief to explain again the leadership steps that he has taken and is taking to guide the law enforcement agency forward.    So I am very hopeful that the result of this hearing will be that we all gain a better understanding of the challenges faced by the Capitol Police; areas where some of the changes or improvements can be made; and, finally, how this Committee can assist, which is what we really want to do, how we can assist the United States Capitol Police in performing their mission because we all share the common goal of protecting the United States Capitol, the entire campus here, as I say, not just the Members or the staff but, most importantly, the American people, the millions of American people that visit each and every day.    So I certainly thank the Chief for his appearance before our Committee today.    I would now like to recognize my colleague, the gentleman from Pennsylvania, Mr. Brady.</t>
   </si>
   <si>
@@ -64,36 +61,24 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Chairman Miller.    And thank you, Chief Dine, for being here today and offering testimony to the committee.    There have been media reports on the rarity of Capitol Police Chief appearing before the committee that is, in fact, charged with oversight of the force. I don't think that it should be unusual and hope that this may be the start of a new tradition of frequent appearances by you and your successors.    I appreciate your service as well as that of each and every one of the officers under your command. And I don't consider it my job to criticize you or others in your command structure just when things go wrong. I think this committee can and should be as much a part of your support network as the Capitol Police are a supporting agency of the U.S. Congress.    However, that requires open and honest communication between us. And while I recognize the often sensitive nature of your work in terms of security, I also recognize that we are both public servants and have responsibility to submit ourselves to public scrutiny from time to time. Again, I appreciate your appearance today, and I look forward to hearing your testimony.    And I yield back.    The Chairman. Thank the gentleman.    Other members?    Mr. Vargas.</t>
   </si>
   <si>
     <t>412522</t>
   </si>
   <si>
-    <t>Juan Vargas</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Vargas. I, too, want to thank you, Madam Chair, for having this hearing.    I also want to thank the Chief. I sat on the San Diego City Council. We had responsibility for the city police there. I was also in the State Assembly and the State Senate. And I have to say, the professionalism here has been fantastic.    I, in particular, want to call out Sergeant Stephen Merle. We have had a couple issues with people that have mobility issues in my district that have come to the Capitol, and he has been fantastic. One lady in particular asked me if I would pass along her thanks to him. Again, his name is Sergeant Stephen Merle.    And, again, I thank you for this hearing. And, again, my experiences have been very, very positive, and I appreciate it again. Thank you.    The Chairman. Thank the gentleman.    Mr. Nugent from Florida.</t>
   </si>
   <si>
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Madam Chair.    And I appreciate, Ranking Member, your support of the Capitol Police and Chief Dine.    Listen, after 38 years of being in law enforcement that I have experience in and being a chief administrator, I know it can be a thankless job from time to time. But, you know, the pressures do exist.    And one of the things I think that this committee would like to see--or at least I would like to see--is more transparency with the agency and us. And it doesn't always have to be in a formal setting such as this. It can be on a one-on-one setting with any one of us as this goes forward.    Obviously, we have great concerns, with reference to what has been in the media as it relates to officers leaving their weapons in areas that they shouldn't, in the gyrocopter landing. I don't think we need to go through every issue at this point in my comments.    But I will tell you that we need to have a better understanding of the Capitol Police. It is probably the most unique law enforcement agency in the Nation that I am aware of because your mission is really about protecting this campus and all of us but, as the chairman had mentioned, all the citizens that come here on a daily basis to view democracy in action.    And yours is a job that not many people could do. And I will tell you, you are only as good as the folks that surround you and your upper administration. But also the men and women that daily put on those uniforms and the vest to protect us, without them, this doesn't happen and we don't have an open setting like this. And so I want to make sure that we are doing everything to support you but also support the men and women of this agency.    And I think sometimes that gets lost, that there are actually people that kiss their husbands or wives goodbye in the morning and not knowing if they are going to come back tonight. And I want to make sure that we are doing everything in our power that they have a great working environment. I am sure you agree with that.    So we want to hear what steps you are going to do to remedy some of the issues that have been brought up by members here today and that you are going to hear about later as we move forward. It is very important that we feel assured that--you are the chief executive officer; you are the Chief of Police--that you have a good handle on it and what you are going to do to remedy it.    You know, obviously, we talk to your folks on a regular basis. And we want to make sure that their morale is high and that they want to stay here because we have a big investment in them. And so I want to hear from you what exactly, what specific ideas you have to put in place to make sure that this elite force stays elite, has the training, and the backing of its administration as we move forward.    And Madam Chair, I yield back. Thank you very much.    The Chairman. Thank the gentleman.    Other members?    If not, let me formally introduce our one witness here today. Kim Dine is the eighth Chief of the United States Capitol Police and has served in this position since December of 2012. The Chief has had a distinguished career in law enforcement for the last 39 years. He began his career with the Metropolitan Police Department in Washington, D.C., where he was eventually appointed assistant chief of police for the department.    In 2002, he became the chief of police of the Frederick, Maryland, police department and served there for 10 years. As Chief of the U.S. Capitol Police, Chief Dine is responsible for commanding a force of nearly 2,000 sworn-in civilian personnel, who are very dedicated to provide comprehensive law enforcement security and protective operation services to the U.S. Congress, Members, staff, and millions of annual visitors in the surrounding complex.    So, with that, Chief, we certainly appreciate you joining us today, and we look forward to your comments. There is normally a 5-minute period, but you take what you need and go through it. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Dine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chief Dine. Thank you, Chairman Miller.    Good afternoon, everyone, and thank you for the opportunity to appear before the Committee on House Administration to discuss the leadership of the United States Capitol Police. I am joined here today by the Department's Chief of Operations, Assistant Chief Matthew Verderosa, and the Department's Chief Administrative Officer, Mr. Richard Braddock, as well as some members of my Executive Management Team.    This afternoon, I would like to provide the Committee with a brief summary of my first 2\\1/2\\ years leading the USCP and lay out to you my short- and long-term vision in leadership priorities for the Department. First, however, I would like to thank the Committee for its sustained and unwavering support for the United States Capitol Police. I am truly grateful for the support of the Congress and that of the Capitol Police Board.    I would also be remiss if I did not recognize the brave women and men of the United States Capitol Police. Each and every day they place themselves in harm's way to ensure that this great institution can carry out its critical role in legislating and providing one-third of the infrastructure for our great democracy. I firmly believe that the women and men of the USCP continually demonstrate professionalism, pride, and effectiveness in meeting the mission requirements for both routine operations and critical incident response and do so proficiently.    In December 2012, I was appointed by the Capitol Police Board to serve as the Chief of Police for the United States Capitol Police. Within the first 2 months on the job, I had the pleasure of leading the Department during the 57th Inauguration of the President of the United States. Since then, I have also overseen numerous State of the Union activities, concerts, National Peace Officers' Memorial services, Joint Meetings of the U.S. Congress, visits from heads of State, dignitaries, and VIPs, CODELS, and demonstrations.    I have also overseen unique situations during my tenure, such as the African Summit, which saw 50 heads of state visit the Capitol; ricin incidents in our mail facilities; operational activities on the Capitol Complex as a result of the Navy Yard shooting; the October 3, 2013, vehicular shooting incident on Capitol Hill; the Convert for Valor; the impacts of demonstrations resulting from the Ferguson, Missouri, police activity; two suicides on Capitol Grounds within the last 2 years; and, most recently, the National Capital Region event with the gyrocopter.    However, response operations have not been the only focus of my leadership. In February 2014, the Department fully implemented its new digitally encrypted radio system without issues or communications service interruptions. In 2014, the Department also successfully achieved reaccreditation from the Commission on Accreditation for Law Enforcement Agencies, CALEA, earning the gold standard in public safety accreditation.    Further, we have continued our efforts to resolve recommendations provided by the United States Capitol Police Inspector General designed to improve our internal controls and management practices, including our controls over the inventory of weapons and ammunition.    I unequivocally understand the concerns regarding the recent issues related to the mishandling of weapons by some of our officers. There are no excuses for these mistakes.    The Department takes these incidents very seriously, and we will rely on our disciplinary process to provide the framework for accountability. USCP employees are held to a very high standard in terms of conduct and discipline. The USCP has a team of highly experienced, well-trained, professional investigators whose sole job function is to investigate internal conduct issues. This is done by conducting thorough, defendable, legally sufficient investigations into misconduct as well as other employee-related matters.    The first offense for a mishandled weapon typically receives a 5- or more day suspension without pay. I am considering increasing the minimum penalty to up to a 30-day suspension, all the way to termination for a first offense, and potential termination for any subsequent offense.    This is not offered in response to these incidents but rather my belief that any high liability type of violation warrants strict disciplinary action. In reference to the mishandled weapons cases that have been publicized, it should be pointed out that employees are trained on the safe handling of firearms. Currently, basic training includes several weeks of weapons training, discussions on safe handling of weapons, and instructions on what to do in situations in which an employee uses the restroom.    That said, I have directed the implementation of new elements to our weapons safety training to reinforce the proper handling of weapons. This training will also be delivered biannually in person during weapons re-qualification as well as annually online.    All of the Department's operational activities and the management initiatives involve our most precious resource, which is our people.    No one cares more about our people than I do. My goal has been and continues to be to create a work environment to provide the tools and training that our workforce needs to be successful in a well-managed and efficient manner. Our relationships with our labor unions are a key part of that goal. During my tenure, we successfully negotiated and ratified a new contract with the Teamsters, which is the labor union representing our covered civilian workforce. Additionally, I meet regularly with members of the Fraternal Order of Police Executive Board on issues of importance to our sworn workforce. We have also initiated negotiations with the FOP on a new contract, which will provide a labor management framework for our covered sworn workforce. These negotiations are ongoing.    I would now like to briefly lay out for you my focus as we go forward. Before I do, I must acknowledge that I realize that I have not fully developed a relationship with you and others in leadership that I have needed to, in order to be a completely effective leader. I came into the Department facing many imminent operational activities and did not appropriately return my focus to establishing myself as the Chief of Police with the congressional community. I would like you to know that I am committed to making the necessary effort to meet your expectations and to provide better communication with all of our oversight committees and congressional leadership.    As you know, on May 1, 2015, I appointed Matthew Verderosa as the Chief of Operations and Assistant Chief of Police after a 30-year career in federal law enforcement. He has served in many operational and administrative roles in the Department, which I believe make him uniquely qualified to help me and my Chief Administrative Officer, Mr. Richard Braddock, lead the Department.    In an effort to provide greater focus to our efforts, I have laid out a plan for achieving many necessary management activities over the next several months. I will be focused on developing the necessary relationships with the Department's stakeholders to be the most effective Chief that I can be.    I plan to enhance communications with our workforce and ensure the most efficient utilization of overtime. I plan to continue training for onboard sworn personnel for the remainder of Fiscal Year 2015. I plan to complete promotions for the ranks of Deputy Chief, Inspector, and Captain and continue to enhance the promotional process for the ranks of Lieutenant and Sergeant, which will be administered in late 2015 or early 2016.    I will oversee the deployment of the Department's new strategic plan in the coming weeks, which will provide greater focus for the USCP's efforts and allow our workforce to more clearly understand their role in achieving our mission responsibilities. Finally, I plan to continue to work with the FOP to address the remaining issues related to contract negotiations.    My long-term focus over the next several years includes a plan to focus the Department's energy in several areas which tie to our new strategic plan, which includes smart policing; deploying more effective law enforcement services through collaboration, adaptability, and innovation; and focusing on workforce efficiency and effectiveness through improved communications.    To successfully achieve these goals, I am committed to taking the leadership actions necessary to build a management team who shares my vision and who will actively engage all levels of the workforce. Given the huge responsibilities of this Department and our entire workforce, I realize that the Department's failure is not an option. I will continue to evolve my leadership style to ensure our success with meeting the mission, the needs of the workforce, and this community.    Once again, thank you for the opportunity to appear before you today. I would be very happy to answer any questions the Committee may have at this time.</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, thank you, Madam Chair, and Mr. Brady, and Chief.    I have been here--I am working on my 21st year, and I think this is the first time we have ever had the police before us, and I think it is long overdue.    I do thank you for your testimony and certainly the men and women of the department who work so hard to protect the Capitol and the people who are here. Like some of the other members of the committee, I served for a long time in local government and a lot of what I know about policing really comes from my experience in local government overseeing law enforcement agencies.    And it seems to me that a lot of the trick of being successful is communication; clear lines of command; clear policies, that officers not only understand the policies but the reasons for the policies. And so I am interested in hearing some of that from you.    I remember in terms of communication, I understand the Capitol Police are not in charge of the airspace, but that is a communication issue. I remember after 9/11, obviously, the Capitol was a target. There was disarray, and many weeks later, we had an all-hands briefing in the Capitol with bipartisan meeting.    And I can say this now because it has all, you know, been changed, but one Member asked the Sergeant at Arms, when did the Secret Service call the Capitol Police? When did that call come in? And the answer was, we are still waiting for that call. I mean, so I think the communication between other agencies, there needs to be a protocol for that so that everybody knows what they are supposed to do.    So I am interested, some of that may be something you want to do in a private setting. I don't know. But I would like to know what those protocols are, whether the other parties are aware of the protocols, and whether there is any monitoring of those protocols in terms of policies.    We had the Naval Yard, a tragic situation. But one of the things that I thought was of concern was officers who left their station for the best reasons in the world, I am sure, to help in a very dire situation, but it raised the question in my mind, which is whether the clear policy, which is you don't leave the Capitol, and why is it? It is not because we are so wonderful. It is that if the Congress is destroyed, the United States Government is destroyed.    And if we had terrorists do a diversion, that might be a good way to leave the Congress, a legislative branch, vulnerable in a way that decapitates the American Government. So I think that officers, if they knew what the clear policy was, you know, everybody would get that. But I am not sure that that policy is in place or whether it has been communicated.    So I guess, I don't want to overdo my welcome, but I am just concerned about the policies, the command structure, the communications with other agencies, and I am wondering, Madam Chair, if we might have an opportunity in a confidential setting to get reports on those subjects.    And I see that my time is up so I would yield back.    The Chairman. I thank the gentlelady very much, and I certainly look forward to continuing our discussion about information that we need to have in a confidential setting, certainly.    The chair recognizes the gentleman from Florida, Mr. Nugent, who, as has been mentioned, has spent many, many years as a law enforcement agent. We appreciate you being on our Committee here today.</t>
   </si>
   <si>
@@ -295,9 +277,6 @@
     <t>412536</t>
   </si>
   <si>
-    <t>Rodney Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chairman.    Before I go into the questions I had, I just want to piggyback on something that my colleague Mr. Nugent was talking about with this email. We are concerned. That email was very, very specific.    How many, on average, emails like that do you get a day?</t>
   </si>
   <si>
@@ -374,9 +353,6 @@
   </si>
   <si>
     <t>412670</t>
-  </si>
-  <si>
-    <t>Mark Walker</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairman.    Chief Dine, I believe this is the third hearing that I have been part of on the House Oversight and Homeland Security, maybe we have even had a classified hearing or two.    I do want to zero in on basically two questions today, and I want to start with going back to your notes on page 5. It says: ``In February 2014, the department fully implemented its new digital encrypted radio system without issues or communication service interruptions.'' It also says: ``This new radio system provides coverage to the Capitol Complex and is now available in areas that previously did not receive radio communications.'' I am on page 5.    Now, here is the important part. It says: ``It also has allowed for greater interoperability. To date, the Department has the ability to conduct the interoperable radio communication bridges with more than a dozen other agencies . . . This equipment allows both parties to communicate directly on each other's radio systems in order to broadcast critical information in a timely manner.''    Now, according to my time line, it looks to be about 23 or 24 months. Can you tell me was that radio system in play and were these agencies interacting as far as when they first found out over those 24 minutes?</t>
@@ -835,11 +811,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -861,11 +835,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -885,13 +857,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -911,13 +881,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -937,13 +905,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -963,13 +929,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -989,13 +953,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1015,13 +977,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1041,13 +1001,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
         <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1067,13 +1025,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
         <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1093,13 +1049,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1119,13 +1073,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1145,13 +1097,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1173,11 +1123,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1197,13 +1145,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1225,11 +1171,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1249,13 +1193,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1275,13 +1217,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1301,13 +1241,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1327,13 +1265,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1353,13 +1289,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1379,13 +1313,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1405,13 +1337,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1431,13 +1361,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1457,13 +1385,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1483,13 +1409,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1509,13 +1433,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1535,13 +1457,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1561,13 +1481,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1587,13 +1505,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1613,13 +1529,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1639,13 +1553,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1665,13 +1577,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1691,13 +1601,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1717,13 +1625,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1743,13 +1649,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1769,13 +1673,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1795,13 +1697,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1821,13 +1721,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1847,13 +1745,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1873,13 +1769,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1899,13 +1793,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1925,13 +1817,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1951,13 +1841,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1977,13 +1865,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2003,13 +1889,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
-      </c>
-      <c r="G47" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2029,13 +1913,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2055,13 +1937,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>21</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2081,13 +1961,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2107,13 +1985,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2133,13 +2009,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2159,13 +2033,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2185,13 +2057,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2211,13 +2081,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2237,13 +2105,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2263,13 +2129,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2289,13 +2153,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2315,13 +2177,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2341,13 +2201,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G60" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2367,13 +2225,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>21</v>
-      </c>
-      <c r="G61" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2393,13 +2249,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2419,13 +2273,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>21</v>
-      </c>
-      <c r="G63" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2445,13 +2297,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2471,13 +2321,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
-      </c>
-      <c r="G65" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2497,13 +2345,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2523,13 +2369,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>21</v>
-      </c>
-      <c r="G67" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2549,13 +2393,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2575,13 +2417,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>21</v>
-      </c>
-      <c r="G69" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2601,13 +2441,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>24</v>
-      </c>
-      <c r="G70" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2627,13 +2465,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>21</v>
-      </c>
-      <c r="G71" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2653,13 +2489,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2679,13 +2513,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>21</v>
-      </c>
-      <c r="G73" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2705,13 +2537,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2731,13 +2561,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2757,13 +2585,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2783,13 +2609,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2809,13 +2633,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2835,13 +2657,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2861,13 +2681,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>92</v>
-      </c>
-      <c r="G80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
         <v>93</v>
-      </c>
-      <c r="H80" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2887,13 +2705,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2913,13 +2729,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>92</v>
-      </c>
-      <c r="G82" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2939,13 +2753,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2965,13 +2777,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>92</v>
-      </c>
-      <c r="G84" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2991,13 +2801,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3017,13 +2825,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>92</v>
-      </c>
-      <c r="G86" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3043,13 +2849,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3069,13 +2873,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>92</v>
-      </c>
-      <c r="G88" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3095,13 +2897,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3121,13 +2921,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3147,13 +2945,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3173,13 +2969,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>92</v>
-      </c>
-      <c r="G92" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3199,13 +2993,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3225,13 +3017,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>92</v>
-      </c>
-      <c r="G94" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3251,13 +3041,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>24</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3277,13 +3065,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>92</v>
-      </c>
-      <c r="G96" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3303,13 +3089,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>24</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3329,13 +3113,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>92</v>
-      </c>
-      <c r="G98" t="s">
-        <v>93</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3355,13 +3137,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>24</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3381,13 +3161,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>119</v>
-      </c>
-      <c r="G100" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3407,13 +3185,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3433,13 +3209,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3459,13 +3233,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>24</v>
-      </c>
-      <c r="G103" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3485,13 +3257,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3511,13 +3281,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3537,13 +3305,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
+        <v>112</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
         <v>119</v>
-      </c>
-      <c r="G106" t="s">
-        <v>120</v>
-      </c>
-      <c r="H106" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3563,13 +3329,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3589,13 +3353,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s">
+        <v>112</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
         <v>120</v>
-      </c>
-      <c r="H108" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3615,13 +3377,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>24</v>
-      </c>
-      <c r="G109" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3641,13 +3401,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" t="s">
-        <v>120</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3667,13 +3425,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>24</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3693,13 +3449,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
-      </c>
-      <c r="G112" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3719,13 +3473,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3747,11 +3499,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3773,11 +3523,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3797,13 +3545,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>24</v>
-      </c>
-      <c r="G116" t="s">
-        <v>25</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3823,13 +3569,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3849,13 +3593,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>57</v>
-      </c>
-      <c r="G118" t="s">
-        <v>58</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3875,13 +3617,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3901,13 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brady. Thank you.    Thank you, Madam Chair.    The Chairman. I would also like to take a moment to introduce and to welcome, before we start our hearing here, our newest member to the House Administration Committee, that is Mark Walker who represents the Sixth District in North Carolina. He is in his first term here in Congress. He came very highly recommended to us, that he had an interest in this Committee, and we are delighted that he is here.    His background is, I think, going to be very much an asset to our Committee. He previously served his community as a pastor, actually, in Greensboro, North Carolina, worked in a small business in the private sector. Both of those attributes are going to be very much needed here, so we certainly appreciate that. We are looking forward to putting him to work here and also looking forward to his input on our Committee.    We are meeting here today to discuss the United States Capitol Police. This law enforcement agency is unique really, unique maybe in the world, certainly, probably not what most would consider a typical community police force, and that is because the mission of the Capitol Police is to protect and to serve the United States Capitol, which, of course, is the citadel of democracy of the world.    There is no denying the fact that this building and this institution are very dramatic symbols of our free society, which is based on self-government. This also makes the Capitol campus and this institution a target of those who hate our freedoms and hate our values here in America. In fact, some say that because of this, perhaps we need even greater restrictions on access to the Capitol campus here. Obviously, that would be totally counter to what this Nation stands for.    One of the many important rights secured on behalf of the American people and the First Amendment in our Constitution is the right to redress their grievances before their government. The American people must have access to those that they send to the Capitol to represent their interests, and they must also have access to the grounds of our Capitol Building to also exercise their constitutionally guaranteed right to peaceably assemble.    Since Congress created the U.S. Capitol Police back in 1828, they have worked very hard to fulfill this dual mission of safety and accessibility. Every Member of Congress, the staff of the Capitol here in the office buildings, and the American people as a whole understand that this is no small task that we have missioned them with.    We commend and we have the utmost respect for the many men and women who uphold their sworn duty to act as protectors and defenders of the law day in and day out, 24/7. Each officer has come here willingly answering the call to serve and to protect. The Capitol Police law enforcement agency is just not a few individuals; they are many who serve as one to meet their mission in protecting our complex.    So we hold this hearing today as part of our Committee's jurisdiction to review the safety and the security of the Capitol and its facilities. The safety of each Member of Congress, all the staff, and most importantly of course, the security and the safety of the millions of Americans who visit each and every year is important.    Our Committee works very closely with the Capitol Police on a daily basis to ensure that they have the tools, the authority, and the support that they need to keep our Capitol safe and secure for everyone. The security needs of the Capitol complex are always at the forefront of our minds, because we all understand the threats. There is a constant need to review security protocols; make certain those protocols are thoughtfully developed; and ensure that the protocols are reviewed, tested, and deployed against the threats.    The importance of this process has not diminished over the years. In fact, new and verifiable threats have only increased, and we must work together to adapt. As with any law enforcement organization, the responsibility for meeting the mission begins and ends at the top. In this case, with the Chief of Police, Kim Dine. While our Committee meets on a regular basis to discuss the security status of our Capitol and all of its inhabitants with the Capitol Police leadership, we felt it was very timely to have a general oversight hearing to hear directly from the Chief of the Capitol Police about his force.    Obviously, we all recognize, Chief, that there are very sensitive aspects about the operations and the capabilities of the Capitol Police that we can probably not discuss in an open forum, but it is important to note, I think, as well, that most often threats are discovered and they are investigated and they are resolved without them ever becoming public. And often they do that almost always really in cooperation with other agencies.    Due to the inherent professionalism of the force, that is a type of flawless response that we have come to expect from the U.S. Capitol Police. But, certainly, as some of the recent events--the gyrocopter incident brings these threats to the forefront. Many have questioned how the gyrocopter was actually able to fly all the way to the front lawn of the Capitol.    However, I will note this: Actually protecting the restricted airspace over Washington, D.C., is not the mission of the Capitol Police. That falls to other agencies. In fact, I can remember, I think it was during President Reagan's funeral when a former Governor of Kentucky, his State aircraft came into restricted airspace. A pilot error, but the Air Force actually scrambled their jets, I think, on that day.    I do remember the Capitol Police doing their duty to evacuate the Capitol campus flawlessly. Again, in that instance, the job of the Capitol Police was not to so much eliminate the air threat in the restricted airspace but to protect those who work there or are visiting the Capitol campus.    I would say this, I had a briefing after that, many of us did, and I told the Chief then that I thought the Capitol Police performed very well once the gyrocopter landed, almost flawlessly, really. However, I would also say that there were some aspects of the event, which I am going to be looking forward to hearing from the Chief on, which we would like to talk a bit about, about when did the Capitol Police know that the individual was heading for the Capitol; and if we had some heads up, how would that affect the response then; and how does it affect the response going forward.    I would also like to note that in that incident and others, I have taken issue with the lack of communication. During that incident, actually the best source of information that I had and I think many Members had was watching cable TV, and actually looking at some of the different news channels. So I think the police work was very impressive, but the communications could be improved. That is an area that we want to have a bit of oversight on. Although, again, I have raised these concerns with the Chief, and it does appear to be that the communication protocols have already been improved.    Also, there have been three separate incidents that perhaps normally you wouldn't talk about publicly, but they have been in all of media outlets so it is quite known, where officers have left their assigned firearms unattended. These are very serious breaches, I think, that alarm all of us, quite frankly. When you are in an open and public environment with literally millions of visitors each and every year, securing your weapon is of primary importance.    So I understand, again, that these incidents are being investigated and, again, normally wouldn't be talked about openly. But certainly, at this point, I hope to hear a bit about how they are being handled, whether the Capitol Police has the training and the resources that it needs, and what steps are being taken to ensure that these kinds of serious incidents are not repeated.    The purpose of the hearing is to examine the current operations and the responses taken by the Capitol Police, particularly those leadership decisions which have an effect on training, readiness, and on the overall morale of the force of the United States Capitol Police.    I would say this, we certainly all understand that now is a particularly challenging time for law enforcement across the entire country--certainly not just here, but across the entire country. We are also very aware that the Capitol Police operate in sort of an asymmetrical environment. The purpose of this hearing is certainly not to second-guess every single action that has been taken in pursuit of security. However, our Committee does have the oversight responsibility for conducting a hearing such as this, and we intend to carry out our responsibilities.    Of course, nearly all of the events that have occurred in the public view are met with textbook responses that display, again, the standard of conduct, the professionalism that Congress expects of its law enforcement agency and is demanded by the American people as well. We would ask the Chief to provide us as much information as possible in an open setting about these incidents, such as what was learned; training improvements; where the training proves successful; in the cases of the unintended firearms, what kinds of corrective actions has been taken, again, that you could discuss openly; and, lastly but likely most importantly, what your plan is for the department to move forward. I think we don't want to be spending our time looking in the rearview mirror. We want to look forward as much as possible, always.    One of the questions--and I mentioned this to the Chief before we started--that I am going to want to bring up and perhaps more of a discussion amongst even the members here is exploring how the chain of command is structured, because right now the Chief of Police reports to the Capitol Police Board, which is made up of the Sergeant at Arms in the House, the Sergeant at Arms in the Senate, and the Architect of the Capitol. This was a police board that was comprised back in the 1800s, and it just seems like it would be a timely thing for us, perhaps, to discuss whether or not this reporting structure complicates performing the duties that we have an expectation of the Capitol Police and its Chief and if it is the best management structure.    Then, finally, I would ask the Chief to explain again the leadership steps that he has taken and is taking to guide the law enforcement agency forward.    So I am very hopeful that the result of this hearing will be that we all gain a better understanding of the challenges faced by the Capitol Police; areas where some of the changes or improvements can be made; and, finally, how this Committee can assist, which is what we really want to do, how we can assist the United States Capitol Police in performing their mission because we all share the common goal of protecting the United States Capitol, the entire campus here, as I say, not just the Members or the staff but, most importantly, the American people, the millions of American people that visit each and every day.    So I certainly thank the Chief for his appearance before our Committee today.    I would now like to recognize my colleague, the gentleman from Pennsylvania, Mr. Brady.</t>
   </si>
   <si>
@@ -61,24 +70,45 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Chairman Miller.    And thank you, Chief Dine, for being here today and offering testimony to the committee.    There have been media reports on the rarity of Capitol Police Chief appearing before the committee that is, in fact, charged with oversight of the force. I don't think that it should be unusual and hope that this may be the start of a new tradition of frequent appearances by you and your successors.    I appreciate your service as well as that of each and every one of the officers under your command. And I don't consider it my job to criticize you or others in your command structure just when things go wrong. I think this committee can and should be as much a part of your support network as the Capitol Police are a supporting agency of the U.S. Congress.    However, that requires open and honest communication between us. And while I recognize the often sensitive nature of your work in terms of security, I also recognize that we are both public servants and have responsibility to submit ourselves to public scrutiny from time to time. Again, I appreciate your appearance today, and I look forward to hearing your testimony.    And I yield back.    The Chairman. Thank the gentleman.    Other members?    Mr. Vargas.</t>
   </si>
   <si>
     <t>412522</t>
   </si>
   <si>
+    <t>Vargas</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Vargas. I, too, want to thank you, Madam Chair, for having this hearing.    I also want to thank the Chief. I sat on the San Diego City Council. We had responsibility for the city police there. I was also in the State Assembly and the State Senate. And I have to say, the professionalism here has been fantastic.    I, in particular, want to call out Sergeant Stephen Merle. We have had a couple issues with people that have mobility issues in my district that have come to the Capitol, and he has been fantastic. One lady in particular asked me if I would pass along her thanks to him. Again, his name is Sergeant Stephen Merle.    And, again, I thank you for this hearing. And, again, my experiences have been very, very positive, and I appreciate it again. Thank you.    The Chairman. Thank the gentleman.    Mr. Nugent from Florida.</t>
   </si>
   <si>
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Madam Chair.    And I appreciate, Ranking Member, your support of the Capitol Police and Chief Dine.    Listen, after 38 years of being in law enforcement that I have experience in and being a chief administrator, I know it can be a thankless job from time to time. But, you know, the pressures do exist.    And one of the things I think that this committee would like to see--or at least I would like to see--is more transparency with the agency and us. And it doesn't always have to be in a formal setting such as this. It can be on a one-on-one setting with any one of us as this goes forward.    Obviously, we have great concerns, with reference to what has been in the media as it relates to officers leaving their weapons in areas that they shouldn't, in the gyrocopter landing. I don't think we need to go through every issue at this point in my comments.    But I will tell you that we need to have a better understanding of the Capitol Police. It is probably the most unique law enforcement agency in the Nation that I am aware of because your mission is really about protecting this campus and all of us but, as the chairman had mentioned, all the citizens that come here on a daily basis to view democracy in action.    And yours is a job that not many people could do. And I will tell you, you are only as good as the folks that surround you and your upper administration. But also the men and women that daily put on those uniforms and the vest to protect us, without them, this doesn't happen and we don't have an open setting like this. And so I want to make sure that we are doing everything to support you but also support the men and women of this agency.    And I think sometimes that gets lost, that there are actually people that kiss their husbands or wives goodbye in the morning and not knowing if they are going to come back tonight. And I want to make sure that we are doing everything in our power that they have a great working environment. I am sure you agree with that.    So we want to hear what steps you are going to do to remedy some of the issues that have been brought up by members here today and that you are going to hear about later as we move forward. It is very important that we feel assured that--you are the chief executive officer; you are the Chief of Police--that you have a good handle on it and what you are going to do to remedy it.    You know, obviously, we talk to your folks on a regular basis. And we want to make sure that their morale is high and that they want to stay here because we have a big investment in them. And so I want to hear from you what exactly, what specific ideas you have to put in place to make sure that this elite force stays elite, has the training, and the backing of its administration as we move forward.    And Madam Chair, I yield back. Thank you very much.    The Chairman. Thank the gentleman.    Other members?    If not, let me formally introduce our one witness here today. Kim Dine is the eighth Chief of the United States Capitol Police and has served in this position since December of 2012. The Chief has had a distinguished career in law enforcement for the last 39 years. He began his career with the Metropolitan Police Department in Washington, D.C., where he was eventually appointed assistant chief of police for the department.    In 2002, he became the chief of police of the Frederick, Maryland, police department and served there for 10 years. As Chief of the U.S. Capitol Police, Chief Dine is responsible for commanding a force of nearly 2,000 sworn-in civilian personnel, who are very dedicated to provide comprehensive law enforcement security and protective operation services to the U.S. Congress, Members, staff, and millions of annual visitors in the surrounding complex.    So, with that, Chief, we certainly appreciate you joining us today, and we look forward to your comments. There is normally a 5-minute period, but you take what you need and go through it. Thank you.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Dine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chief Dine. Thank you, Chairman Miller.    Good afternoon, everyone, and thank you for the opportunity to appear before the Committee on House Administration to discuss the leadership of the United States Capitol Police. I am joined here today by the Department's Chief of Operations, Assistant Chief Matthew Verderosa, and the Department's Chief Administrative Officer, Mr. Richard Braddock, as well as some members of my Executive Management Team.    This afternoon, I would like to provide the Committee with a brief summary of my first 2\\1/2\\ years leading the USCP and lay out to you my short- and long-term vision in leadership priorities for the Department. First, however, I would like to thank the Committee for its sustained and unwavering support for the United States Capitol Police. I am truly grateful for the support of the Congress and that of the Capitol Police Board.    I would also be remiss if I did not recognize the brave women and men of the United States Capitol Police. Each and every day they place themselves in harm's way to ensure that this great institution can carry out its critical role in legislating and providing one-third of the infrastructure for our great democracy. I firmly believe that the women and men of the USCP continually demonstrate professionalism, pride, and effectiveness in meeting the mission requirements for both routine operations and critical incident response and do so proficiently.    In December 2012, I was appointed by the Capitol Police Board to serve as the Chief of Police for the United States Capitol Police. Within the first 2 months on the job, I had the pleasure of leading the Department during the 57th Inauguration of the President of the United States. Since then, I have also overseen numerous State of the Union activities, concerts, National Peace Officers' Memorial services, Joint Meetings of the U.S. Congress, visits from heads of State, dignitaries, and VIPs, CODELS, and demonstrations.    I have also overseen unique situations during my tenure, such as the African Summit, which saw 50 heads of state visit the Capitol; ricin incidents in our mail facilities; operational activities on the Capitol Complex as a result of the Navy Yard shooting; the October 3, 2013, vehicular shooting incident on Capitol Hill; the Convert for Valor; the impacts of demonstrations resulting from the Ferguson, Missouri, police activity; two suicides on Capitol Grounds within the last 2 years; and, most recently, the National Capital Region event with the gyrocopter.    However, response operations have not been the only focus of my leadership. In February 2014, the Department fully implemented its new digitally encrypted radio system without issues or communications service interruptions. In 2014, the Department also successfully achieved reaccreditation from the Commission on Accreditation for Law Enforcement Agencies, CALEA, earning the gold standard in public safety accreditation.    Further, we have continued our efforts to resolve recommendations provided by the United States Capitol Police Inspector General designed to improve our internal controls and management practices, including our controls over the inventory of weapons and ammunition.    I unequivocally understand the concerns regarding the recent issues related to the mishandling of weapons by some of our officers. There are no excuses for these mistakes.    The Department takes these incidents very seriously, and we will rely on our disciplinary process to provide the framework for accountability. USCP employees are held to a very high standard in terms of conduct and discipline. The USCP has a team of highly experienced, well-trained, professional investigators whose sole job function is to investigate internal conduct issues. This is done by conducting thorough, defendable, legally sufficient investigations into misconduct as well as other employee-related matters.    The first offense for a mishandled weapon typically receives a 5- or more day suspension without pay. I am considering increasing the minimum penalty to up to a 30-day suspension, all the way to termination for a first offense, and potential termination for any subsequent offense.    This is not offered in response to these incidents but rather my belief that any high liability type of violation warrants strict disciplinary action. In reference to the mishandled weapons cases that have been publicized, it should be pointed out that employees are trained on the safe handling of firearms. Currently, basic training includes several weeks of weapons training, discussions on safe handling of weapons, and instructions on what to do in situations in which an employee uses the restroom.    That said, I have directed the implementation of new elements to our weapons safety training to reinforce the proper handling of weapons. This training will also be delivered biannually in person during weapons re-qualification as well as annually online.    All of the Department's operational activities and the management initiatives involve our most precious resource, which is our people.    No one cares more about our people than I do. My goal has been and continues to be to create a work environment to provide the tools and training that our workforce needs to be successful in a well-managed and efficient manner. Our relationships with our labor unions are a key part of that goal. During my tenure, we successfully negotiated and ratified a new contract with the Teamsters, which is the labor union representing our covered civilian workforce. Additionally, I meet regularly with members of the Fraternal Order of Police Executive Board on issues of importance to our sworn workforce. We have also initiated negotiations with the FOP on a new contract, which will provide a labor management framework for our covered sworn workforce. These negotiations are ongoing.    I would now like to briefly lay out for you my focus as we go forward. Before I do, I must acknowledge that I realize that I have not fully developed a relationship with you and others in leadership that I have needed to, in order to be a completely effective leader. I came into the Department facing many imminent operational activities and did not appropriately return my focus to establishing myself as the Chief of Police with the congressional community. I would like you to know that I am committed to making the necessary effort to meet your expectations and to provide better communication with all of our oversight committees and congressional leadership.    As you know, on May 1, 2015, I appointed Matthew Verderosa as the Chief of Operations and Assistant Chief of Police after a 30-year career in federal law enforcement. He has served in many operational and administrative roles in the Department, which I believe make him uniquely qualified to help me and my Chief Administrative Officer, Mr. Richard Braddock, lead the Department.    In an effort to provide greater focus to our efforts, I have laid out a plan for achieving many necessary management activities over the next several months. I will be focused on developing the necessary relationships with the Department's stakeholders to be the most effective Chief that I can be.    I plan to enhance communications with our workforce and ensure the most efficient utilization of overtime. I plan to continue training for onboard sworn personnel for the remainder of Fiscal Year 2015. I plan to complete promotions for the ranks of Deputy Chief, Inspector, and Captain and continue to enhance the promotional process for the ranks of Lieutenant and Sergeant, which will be administered in late 2015 or early 2016.    I will oversee the deployment of the Department's new strategic plan in the coming weeks, which will provide greater focus for the USCP's efforts and allow our workforce to more clearly understand their role in achieving our mission responsibilities. Finally, I plan to continue to work with the FOP to address the remaining issues related to contract negotiations.    My long-term focus over the next several years includes a plan to focus the Department's energy in several areas which tie to our new strategic plan, which includes smart policing; deploying more effective law enforcement services through collaboration, adaptability, and innovation; and focusing on workforce efficiency and effectiveness through improved communications.    To successfully achieve these goals, I am committed to taking the leadership actions necessary to build a management team who shares my vision and who will actively engage all levels of the workforce. Given the huge responsibilities of this Department and our entire workforce, I realize that the Department's failure is not an option. I will continue to evolve my leadership style to ensure our success with meeting the mission, the needs of the workforce, and this community.    Once again, thank you for the opportunity to appear before you today. I would be very happy to answer any questions the Committee may have at this time.</t>
   </si>
   <si>
@@ -175,6 +205,12 @@
     <t>400245</t>
   </si>
   <si>
+    <t>Lofgren</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Lofgren. Well, thank you, Madam Chair, and Mr. Brady, and Chief.    I have been here--I am working on my 21st year, and I think this is the first time we have ever had the police before us, and I think it is long overdue.    I do thank you for your testimony and certainly the men and women of the department who work so hard to protect the Capitol and the people who are here. Like some of the other members of the committee, I served for a long time in local government and a lot of what I know about policing really comes from my experience in local government overseeing law enforcement agencies.    And it seems to me that a lot of the trick of being successful is communication; clear lines of command; clear policies, that officers not only understand the policies but the reasons for the policies. And so I am interested in hearing some of that from you.    I remember in terms of communication, I understand the Capitol Police are not in charge of the airspace, but that is a communication issue. I remember after 9/11, obviously, the Capitol was a target. There was disarray, and many weeks later, we had an all-hands briefing in the Capitol with bipartisan meeting.    And I can say this now because it has all, you know, been changed, but one Member asked the Sergeant at Arms, when did the Secret Service call the Capitol Police? When did that call come in? And the answer was, we are still waiting for that call. I mean, so I think the communication between other agencies, there needs to be a protocol for that so that everybody knows what they are supposed to do.    So I am interested, some of that may be something you want to do in a private setting. I don't know. But I would like to know what those protocols are, whether the other parties are aware of the protocols, and whether there is any monitoring of those protocols in terms of policies.    We had the Naval Yard, a tragic situation. But one of the things that I thought was of concern was officers who left their station for the best reasons in the world, I am sure, to help in a very dire situation, but it raised the question in my mind, which is whether the clear policy, which is you don't leave the Capitol, and why is it? It is not because we are so wonderful. It is that if the Congress is destroyed, the United States Government is destroyed.    And if we had terrorists do a diversion, that might be a good way to leave the Congress, a legislative branch, vulnerable in a way that decapitates the American Government. So I think that officers, if they knew what the clear policy was, you know, everybody would get that. But I am not sure that that policy is in place or whether it has been communicated.    So I guess, I don't want to overdo my welcome, but I am just concerned about the policies, the command structure, the communications with other agencies, and I am wondering, Madam Chair, if we might have an opportunity in a confidential setting to get reports on those subjects.    And I see that my time is up so I would yield back.    The Chairman. I thank the gentlelady very much, and I certainly look forward to continuing our discussion about information that we need to have in a confidential setting, certainly.    The chair recognizes the gentleman from Florida, Mr. Nugent, who, as has been mentioned, has spent many, many years as a law enforcement agent. We appreciate you being on our Committee here today.</t>
   </si>
   <si>
@@ -277,6 +313,12 @@
     <t>412536</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Rodney</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Davis. Thank you, Madam Chairman.    Before I go into the questions I had, I just want to piggyback on something that my colleague Mr. Nugent was talking about with this email. We are concerned. That email was very, very specific.    How many, on average, emails like that do you get a day?</t>
   </si>
   <si>
@@ -353,6 +395,12 @@
   </si>
   <si>
     <t>412670</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Mark</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Walker. Thank you, Madam Chairman.    Chief Dine, I believe this is the third hearing that I have been part of on the House Oversight and Homeland Security, maybe we have even had a classified hearing or two.    I do want to zero in on basically two questions today, and I want to start with going back to your notes on page 5. It says: ``In February 2014, the department fully implemented its new digital encrypted radio system without issues or communication service interruptions.'' It also says: ``This new radio system provides coverage to the Capitol Complex and is now available in areas that previously did not receive radio communications.'' I am on page 5.    Now, here is the important part. It says: ``It also has allowed for greater interoperability. To date, the Department has the ability to conduct the interoperable radio communication bridges with more than a dozen other agencies . . . This equipment allows both parties to communicate directly on each other's radio systems in order to broadcast critical information in a timely manner.''    Now, according to my time line, it looks to be about 23 or 24 months. Can you tell me was that radio system in play and were these agencies interacting as far as when they first found out over those 24 minutes?</t>
@@ -761,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -769,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -791,2861 +839,3343 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G26" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>30</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G40" t="s">
+        <v>63</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
       <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
       <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
       <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
+        <v>30</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
       <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
+        <v>30</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
       <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
       <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
       <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G74" t="s">
+        <v>99</v>
+      </c>
       <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I74" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G76" t="s">
+        <v>99</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
+        <v>30</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G78" t="s">
+        <v>99</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I78" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
+        <v>30</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>86</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G80" t="s">
+        <v>99</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G81" t="s">
+        <v>30</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s">
+        <v>30</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s">
+        <v>99</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s">
+        <v>30</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s">
+        <v>99</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>86</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G88" t="s">
+        <v>99</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G89" t="s">
+        <v>30</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s">
+        <v>99</v>
+      </c>
       <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G91" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s">
+        <v>99</v>
+      </c>
       <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s">
+        <v>30</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G94" t="s">
+        <v>99</v>
+      </c>
       <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G95" t="s">
+        <v>30</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G96" t="s">
+        <v>99</v>
+      </c>
       <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G97" t="s">
+        <v>30</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>86</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="G98" t="s">
+        <v>99</v>
+      </c>
       <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G99" t="s">
+        <v>30</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>112</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
       <c r="H100" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>112</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
       <c r="H102" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s">
+        <v>30</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>112</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>127</v>
+      </c>
       <c r="H104" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s">
+        <v>30</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G106" t="s">
+        <v>127</v>
+      </c>
       <c r="H106" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G107" t="s">
+        <v>30</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>127</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s">
+        <v>30</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s">
+        <v>127</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>128</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s">
+        <v>30</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s">
+        <v>30</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>30</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G118" t="s">
+        <v>63</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>26</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
+        <v>27</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95310.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400047</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brady</t>
   </si>
   <si>
@@ -68,6 +74,9 @@
   </si>
   <si>
     <t>412280</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Harper</t>
@@ -809,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -817,7 +826,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -842,3340 +851,3584 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" t="s">
-        <v>30</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
-      </c>
-      <c r="G30" t="s">
-        <v>30</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
-      </c>
-      <c r="G32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H33" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="I33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
       <c r="G35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" t="s">
-        <v>30</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>33</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G40" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G41" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>29</v>
-      </c>
-      <c r="G42" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G43" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>33</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G45" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G49" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>33</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G51" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" t="s">
-        <v>30</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>33</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G53" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>33</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G55" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
-      </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>33</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>33</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>33</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I65" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G67" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I67" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
-      </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>33</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G69" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J69" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
-      </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G71" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>33</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G73" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H74" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
-      </c>
-      <c r="G75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>33</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>33</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H78" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" t="s">
-        <v>30</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>33</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" t="s">
-        <v>30</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>33</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G82" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" t="s">
-        <v>30</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>33</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G84" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H84" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
-      </c>
-      <c r="G85" t="s">
-        <v>30</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>33</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G86" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G87" t="s">
-        <v>30</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>33</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G88" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>29</v>
-      </c>
-      <c r="G89" t="s">
-        <v>30</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>33</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
-      </c>
-      <c r="G91" t="s">
-        <v>30</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>33</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
-      </c>
-      <c r="G93" t="s">
-        <v>30</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>33</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
-      </c>
-      <c r="G95" t="s">
-        <v>30</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>33</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J96" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
-      </c>
-      <c r="G97" t="s">
-        <v>30</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>33</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G98" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H98" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
-      </c>
-      <c r="G99" t="s">
-        <v>30</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>33</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I100" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
-      </c>
-      <c r="G101" t="s">
-        <v>30</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>33</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G102" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I102" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>29</v>
-      </c>
-      <c r="G103" t="s">
-        <v>30</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>33</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G104" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
-      </c>
-      <c r="G105" t="s">
-        <v>30</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>33</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G106" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H106" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G108" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H108" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G110" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="H110" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>131</v>
+      </c>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>33</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" t="s">
-        <v>30</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>33</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G117" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G118" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G119" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H119" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>30</v>
+      </c>
+      <c r="J119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G120" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H120" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
+        <v>30</v>
+      </c>
+      <c r="J120" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
